--- a/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C20A41-3AAA-4E1F-B68E-5E8B3FAEE260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="18600" windowHeight="6915"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="はじめに" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,18 @@
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">はじめに!$A$1:$AI$80</definedName>
     <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">はじめに!$A$1:$AI$80</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -152,10 +164,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本プロジェクトで使用可能な文字を定義したドキュメントである。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要</t>
     <rPh sb="0" eb="1">
       <t>ヨウ</t>
@@ -271,11 +279,15 @@
     <t>想定されることから別冊とする。</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>本システムで使用可能な文字を定義したドキュメントである。</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -688,15 +700,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="1"/>
-    <cellStyle name="標準_画面標準" xfId="2"/>
-    <cellStyle name="標準_画面標準定義" xfId="3"/>
+    <cellStyle name="標準 3 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -719,7 +734,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1241" name="Group 217"/>
+        <xdr:cNvPr id="1241" name="Group 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
@@ -734,7 +755,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1286" name="Rectangle 262"/>
+          <xdr:cNvPr id="1286" name="Rectangle 262">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -781,7 +808,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1292" name="AutoShape 268"/>
+          <xdr:cNvPr id="1292" name="AutoShape 268">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
           </xdr:cNvSpPr>
@@ -808,7 +841,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1291" name="Rectangle 267"/>
+          <xdr:cNvPr id="1291" name="Rectangle 267">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -862,7 +901,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1290" name="Rectangle 266"/>
+          <xdr:cNvPr id="1290" name="Rectangle 266">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -916,7 +961,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1289" name="AutoShape 265"/>
+          <xdr:cNvPr id="1289" name="AutoShape 265">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -995,7 +1046,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1288" name="AutoShape 264"/>
+          <xdr:cNvPr id="1288" name="AutoShape 264">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1052,7 +1109,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1287" name="AutoShape 263"/>
+          <xdr:cNvPr id="1287" name="AutoShape 263">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1148,7 +1211,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1285" name="Rectangle 261"/>
+          <xdr:cNvPr id="1285" name="Rectangle 261">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1220,7 +1289,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="1281" name="Group 257"/>
+          <xdr:cNvPr id="1281" name="Group 257">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -1235,7 +1310,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1284" name="AutoShape 260"/>
+            <xdr:cNvPr id="1284" name="AutoShape 260">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1282,7 +1363,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1283" name="AutoShape 259"/>
+            <xdr:cNvPr id="1283" name="AutoShape 259">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1329,7 +1416,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1282" name="AutoShape 258"/>
+            <xdr:cNvPr id="1282" name="AutoShape 258">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1377,7 +1470,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="1273" name="Group 249"/>
+          <xdr:cNvPr id="1273" name="Group 249">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F9040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -1392,7 +1491,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1276" name="AutoShape 252"/>
+            <xdr:cNvPr id="1276" name="AutoShape 252">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FC040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1439,7 +1544,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1275" name="AutoShape 251"/>
+            <xdr:cNvPr id="1275" name="AutoShape 251">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FB040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1486,7 +1597,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1274" name="AutoShape 250"/>
+            <xdr:cNvPr id="1274" name="AutoShape 250">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FA040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1534,7 +1651,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="1269" name="Group 245"/>
+          <xdr:cNvPr id="1269" name="Group 245">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F5040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -1549,7 +1672,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1272" name="AutoShape 248"/>
+            <xdr:cNvPr id="1272" name="AutoShape 248">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F8040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1593,7 +1722,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1271" name="AutoShape 247"/>
+            <xdr:cNvPr id="1271" name="AutoShape 247">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F7040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1637,7 +1772,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1270" name="AutoShape 246"/>
+            <xdr:cNvPr id="1270" name="AutoShape 246">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F6040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1685,7 +1826,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="1265" name="Group 241"/>
+          <xdr:cNvPr id="1265" name="Group 241">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -1700,7 +1847,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1268" name="AutoShape 244"/>
+            <xdr:cNvPr id="1268" name="AutoShape 244">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F4040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1744,7 +1897,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1267" name="AutoShape 243"/>
+            <xdr:cNvPr id="1267" name="AutoShape 243">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F3040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1788,7 +1947,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1266" name="AutoShape 242"/>
+            <xdr:cNvPr id="1266" name="AutoShape 242">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F2040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1836,7 +2001,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1264" name="AutoShape 240"/>
+          <xdr:cNvPr id="1264" name="AutoShape 240">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F0040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1872,7 +2043,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1263" name="AutoShape 239"/>
+          <xdr:cNvPr id="1263" name="AutoShape 239">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EF040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1919,7 +2096,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1262" name="AutoShape 238"/>
+          <xdr:cNvPr id="1262" name="AutoShape 238">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EE040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1966,7 +2149,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1261" name="AutoShape 237"/>
+          <xdr:cNvPr id="1261" name="AutoShape 237">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2002,7 +2191,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1260" name="AutoShape 236"/>
+          <xdr:cNvPr id="1260" name="AutoShape 236">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EC040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2038,7 +2233,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1259" name="AutoShape 235"/>
+          <xdr:cNvPr id="1259" name="AutoShape 235">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EB040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2072,7 +2273,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1258" name="Text Box 234"/>
+          <xdr:cNvPr id="1258" name="Text Box 234">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EA040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2133,7 +2340,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1257" name="Rectangle 233"/>
+          <xdr:cNvPr id="1257" name="Rectangle 233">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2180,7 +2393,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1252" name="Rectangle 228"/>
+          <xdr:cNvPr id="1252" name="Rectangle 228">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2234,7 +2453,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1251" name="AutoShape 227"/>
+          <xdr:cNvPr id="1251" name="AutoShape 227">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2270,7 +2495,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="1247" name="Group 223"/>
+          <xdr:cNvPr id="1247" name="Group 223">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DF040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -2285,7 +2516,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1250" name="AutoShape 226"/>
+            <xdr:cNvPr id="1250" name="AutoShape 226">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E2040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -2329,7 +2566,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1249" name="AutoShape 225"/>
+            <xdr:cNvPr id="1249" name="AutoShape 225">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E1040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -2373,7 +2616,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1248" name="AutoShape 224"/>
+            <xdr:cNvPr id="1248" name="AutoShape 224">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E0040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -2450,7 +2699,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1246" name="AutoShape 222"/>
+          <xdr:cNvPr id="1246" name="AutoShape 222">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2535,7 +2790,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1245" name="AutoShape 221"/>
+          <xdr:cNvPr id="1245" name="AutoShape 221">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2571,7 +2832,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1244" name="AutoShape 220"/>
+          <xdr:cNvPr id="1244" name="AutoShape 220">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2607,7 +2874,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1243" name="Text Box 219"/>
+          <xdr:cNvPr id="1243" name="Text Box 219">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2668,7 +2941,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1242" name="Rectangle 218"/>
+          <xdr:cNvPr id="1242" name="Rectangle 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2728,7 +3007,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2770,7 +3049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2803,9 +3082,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2838,6 +3134,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3013,7 +3326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3034,7 +3347,7 @@
       <c r="C1" s="33"/>
       <c r="D1" s="24"/>
       <c r="E1" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
@@ -3051,7 +3364,7 @@
       </c>
       <c r="Q1" s="33"/>
       <c r="R1" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S1" s="50"/>
       <c r="T1" s="50"/>
@@ -3205,12 +3518,12 @@
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3220,12 +3533,12 @@
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3474,14 +3787,14 @@
       <c r="J68" s="11"/>
       <c r="K68" s="10"/>
       <c r="L68" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
@@ -3516,7 +3829,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
@@ -3551,7 +3864,7 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
@@ -3586,7 +3899,7 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
@@ -3621,7 +3934,7 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
@@ -3656,7 +3969,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
@@ -3711,7 +4024,7 @@
     </row>
     <row r="75" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -3721,14 +4034,14 @@
       <c r="J75" s="11"/>
       <c r="K75" s="10"/>
       <c r="L75" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
@@ -3763,7 +4076,7 @@
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
@@ -3828,14 +4141,14 @@
       <c r="J78" s="38"/>
       <c r="K78" s="39"/>
       <c r="L78" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M78" s="38"/>
       <c r="N78" s="38"/>
       <c r="O78" s="38"/>
       <c r="P78" s="38"/>
       <c r="Q78" s="37" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="R78" s="38"/>
       <c r="S78" s="38"/>

--- a/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C20A41-3AAA-4E1F-B68E-5E8B3FAEE260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD53D7E-0FEF-405B-84B3-860B3454F014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="はじめに" sheetId="1" r:id="rId1"/>
+    <sheet name="1.はじめに" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">はじめに!$A$1:$AI$81</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">はじめに!$A$1:$AI$80</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">はじめに!$A$1:$AI$80</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">はじめに!$A$1:$AI$80</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">はじめに!$A$1:$AI$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.はじめに'!$A$1:$AI$81</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>

--- a/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD53D7E-0FEF-405B-84B3-860B3454F014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96FB1F-6244-4FD0-B269-86C2D18FD536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,10 +124,6 @@
   </si>
   <si>
     <t>また、本システムはNablarch　Application Frameworkの上に構築されているが、Nablarch Application Frameworkの詳細な仕様については</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Webドキュメント https://nablarch.github.io/docs/LATEST/doc/index.html を参照することを前提としており、本書では触れていない。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -281,6 +277,10 @@
   </si>
   <si>
     <t>本システムで使用可能な文字を定義したドキュメントである。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Webドキュメント https://nablarch.github.io/docs/5u21/doc/index.html を参照することを前提としており、本書では触れていない。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3347,7 +3347,7 @@
       <c r="C1" s="33"/>
       <c r="D1" s="24"/>
       <c r="E1" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="Q1" s="33"/>
       <c r="R1" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S1" s="50"/>
       <c r="T1" s="50"/>
@@ -3518,12 +3518,12 @@
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3533,12 +3533,12 @@
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3548,22 +3548,22 @@
     </row>
     <row r="19" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3777,7 +3777,7 @@
     </row>
     <row r="68" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -3787,14 +3787,14 @@
       <c r="J68" s="11"/>
       <c r="K68" s="10"/>
       <c r="L68" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
@@ -3829,7 +3829,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
@@ -3864,7 +3864,7 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
@@ -3899,7 +3899,7 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
@@ -3934,7 +3934,7 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
@@ -3969,7 +3969,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="75" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -4034,14 +4034,14 @@
       <c r="J75" s="11"/>
       <c r="K75" s="10"/>
       <c r="L75" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
@@ -4076,7 +4076,7 @@
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="78" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
@@ -4141,14 +4141,14 @@
       <c r="J78" s="38"/>
       <c r="K78" s="39"/>
       <c r="L78" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M78" s="38"/>
       <c r="N78" s="38"/>
       <c r="O78" s="38"/>
       <c r="P78" s="38"/>
       <c r="Q78" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R78" s="38"/>
       <c r="S78" s="38"/>

--- a/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96FB1F-6244-4FD0-B269-86C2D18FD536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="18600" windowHeight="6915"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="はじめに" sheetId="1" r:id="rId1"/>
+    <sheet name="1.はじめに" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">はじめに!$A$1:$AI$81</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">はじめに!$A$1:$AI$80</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">はじめに!$A$1:$AI$80</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">はじめに!$A$1:$AI$80</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">はじめに!$A$1:$AI$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.はじめに'!$A$1:$AI$81</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -115,10 +127,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Webドキュメント https://nablarch.github.io/docs/LATEST/doc/index.html を参照することを前提としており、本書では触れていない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
     <phoneticPr fontId="2"/>
@@ -149,10 +157,6 @@
     <rPh sb="7" eb="9">
       <t>テイギ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本プロジェクトで使用可能な文字を定義したドキュメントである。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -271,11 +275,19 @@
     <t>想定されることから別冊とする。</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>本システムで使用可能な文字を定義したドキュメントである。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Webドキュメント https://nablarch.github.io/docs/5u21/doc/index.html を参照することを前提としており、本書では触れていない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -688,15 +700,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="1"/>
-    <cellStyle name="標準_画面標準" xfId="2"/>
-    <cellStyle name="標準_画面標準定義" xfId="3"/>
+    <cellStyle name="標準 3 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -719,7 +734,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1241" name="Group 217"/>
+        <xdr:cNvPr id="1241" name="Group 217">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D9040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks noChangeAspect="1"/>
         </xdr:cNvGrpSpPr>
@@ -734,7 +755,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1286" name="Rectangle 262"/>
+          <xdr:cNvPr id="1286" name="Rectangle 262">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -781,7 +808,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1292" name="AutoShape 268"/>
+          <xdr:cNvPr id="1292" name="AutoShape 268">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeAspect="1" noChangeArrowheads="1" noTextEdit="1"/>
           </xdr:cNvSpPr>
@@ -808,7 +841,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1291" name="Rectangle 267"/>
+          <xdr:cNvPr id="1291" name="Rectangle 267">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -862,7 +901,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1290" name="Rectangle 266"/>
+          <xdr:cNvPr id="1290" name="Rectangle 266">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -916,7 +961,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1289" name="AutoShape 265"/>
+          <xdr:cNvPr id="1289" name="AutoShape 265">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -995,7 +1046,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1288" name="AutoShape 264"/>
+          <xdr:cNvPr id="1288" name="AutoShape 264">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1052,7 +1109,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1287" name="AutoShape 263"/>
+          <xdr:cNvPr id="1287" name="AutoShape 263">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1148,7 +1211,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1285" name="Rectangle 261"/>
+          <xdr:cNvPr id="1285" name="Rectangle 261">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1220,7 +1289,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="1281" name="Group 257"/>
+          <xdr:cNvPr id="1281" name="Group 257">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001050000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -1235,7 +1310,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1284" name="AutoShape 260"/>
+            <xdr:cNvPr id="1284" name="AutoShape 260">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1282,7 +1363,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1283" name="AutoShape 259"/>
+            <xdr:cNvPr id="1283" name="AutoShape 259">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1329,7 +1416,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1282" name="AutoShape 258"/>
+            <xdr:cNvPr id="1282" name="AutoShape 258">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002050000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1377,7 +1470,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="1273" name="Group 249"/>
+          <xdr:cNvPr id="1273" name="Group 249">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F9040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -1392,7 +1491,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1276" name="AutoShape 252"/>
+            <xdr:cNvPr id="1276" name="AutoShape 252">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FC040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1439,7 +1544,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1275" name="AutoShape 251"/>
+            <xdr:cNvPr id="1275" name="AutoShape 251">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FB040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1486,7 +1597,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1274" name="AutoShape 250"/>
+            <xdr:cNvPr id="1274" name="AutoShape 250">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000FA040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1534,7 +1651,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="1269" name="Group 245"/>
+          <xdr:cNvPr id="1269" name="Group 245">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F5040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -1549,7 +1672,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1272" name="AutoShape 248"/>
+            <xdr:cNvPr id="1272" name="AutoShape 248">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F8040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1593,7 +1722,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1271" name="AutoShape 247"/>
+            <xdr:cNvPr id="1271" name="AutoShape 247">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F7040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1637,7 +1772,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1270" name="AutoShape 246"/>
+            <xdr:cNvPr id="1270" name="AutoShape 246">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F6040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1685,7 +1826,13 @@
       </xdr:grpSp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="1265" name="Group 241"/>
+          <xdr:cNvPr id="1265" name="Group 241">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F1040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -1700,7 +1847,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1268" name="AutoShape 244"/>
+            <xdr:cNvPr id="1268" name="AutoShape 244">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F4040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1744,7 +1897,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1267" name="AutoShape 243"/>
+            <xdr:cNvPr id="1267" name="AutoShape 243">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F3040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1788,7 +1947,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1266" name="AutoShape 242"/>
+            <xdr:cNvPr id="1266" name="AutoShape 242">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F2040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -1836,7 +2001,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1264" name="AutoShape 240"/>
+          <xdr:cNvPr id="1264" name="AutoShape 240">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000F0040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -1872,7 +2043,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1263" name="AutoShape 239"/>
+          <xdr:cNvPr id="1263" name="AutoShape 239">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EF040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1919,7 +2096,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1262" name="AutoShape 238"/>
+          <xdr:cNvPr id="1262" name="AutoShape 238">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EE040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1966,7 +2149,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1261" name="AutoShape 237"/>
+          <xdr:cNvPr id="1261" name="AutoShape 237">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000ED040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2002,7 +2191,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1260" name="AutoShape 236"/>
+          <xdr:cNvPr id="1260" name="AutoShape 236">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EC040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2038,7 +2233,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1259" name="AutoShape 235"/>
+          <xdr:cNvPr id="1259" name="AutoShape 235">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EB040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2072,7 +2273,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1258" name="Text Box 234"/>
+          <xdr:cNvPr id="1258" name="Text Box 234">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000EA040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2133,7 +2340,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1257" name="Rectangle 233"/>
+          <xdr:cNvPr id="1257" name="Rectangle 233">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E9040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2180,7 +2393,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1252" name="Rectangle 228"/>
+          <xdr:cNvPr id="1252" name="Rectangle 228">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E4040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2234,7 +2453,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1251" name="AutoShape 227"/>
+          <xdr:cNvPr id="1251" name="AutoShape 227">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E3040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2270,7 +2495,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="1247" name="Group 223"/>
+          <xdr:cNvPr id="1247" name="Group 223">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DF040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -2285,7 +2516,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1250" name="AutoShape 226"/>
+            <xdr:cNvPr id="1250" name="AutoShape 226">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E2040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -2329,7 +2566,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1249" name="AutoShape 225"/>
+            <xdr:cNvPr id="1249" name="AutoShape 225">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E1040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -2373,7 +2616,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1248" name="AutoShape 224"/>
+            <xdr:cNvPr id="1248" name="AutoShape 224">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000E0040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -2450,7 +2699,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1246" name="AutoShape 222"/>
+          <xdr:cNvPr id="1246" name="AutoShape 222">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DE040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2535,7 +2790,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1245" name="AutoShape 221"/>
+          <xdr:cNvPr id="1245" name="AutoShape 221">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DD040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2571,7 +2832,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1244" name="AutoShape 220"/>
+          <xdr:cNvPr id="1244" name="AutoShape 220">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DC040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -2607,7 +2874,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1243" name="Text Box 219"/>
+          <xdr:cNvPr id="1243" name="Text Box 219">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DB040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2668,7 +2941,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1242" name="Rectangle 218"/>
+          <xdr:cNvPr id="1242" name="Rectangle 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000DA040000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2728,7 +3007,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2770,7 +3049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2803,9 +3082,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2838,6 +3134,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3013,7 +3326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3034,7 +3347,7 @@
       <c r="C1" s="33"/>
       <c r="D1" s="24"/>
       <c r="E1" s="46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
@@ -3051,7 +3364,7 @@
       </c>
       <c r="Q1" s="33"/>
       <c r="R1" s="49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S1" s="50"/>
       <c r="T1" s="50"/>
@@ -3205,12 +3518,12 @@
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3220,12 +3533,12 @@
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3235,22 +3548,22 @@
     </row>
     <row r="19" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3464,7 +3777,7 @@
     </row>
     <row r="68" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -3474,14 +3787,14 @@
       <c r="J68" s="11"/>
       <c r="K68" s="10"/>
       <c r="L68" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
@@ -3516,7 +3829,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
@@ -3551,7 +3864,7 @@
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
@@ -3586,7 +3899,7 @@
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
@@ -3621,7 +3934,7 @@
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
@@ -3656,7 +3969,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
@@ -3711,7 +4024,7 @@
     </row>
     <row r="75" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D75" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -3721,14 +4034,14 @@
       <c r="J75" s="11"/>
       <c r="K75" s="10"/>
       <c r="L75" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
@@ -3763,7 +4076,7 @@
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
@@ -3818,7 +4131,7 @@
     </row>
     <row r="78" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D78" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38"/>
@@ -3828,14 +4141,14 @@
       <c r="J78" s="38"/>
       <c r="K78" s="39"/>
       <c r="L78" s="38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M78" s="38"/>
       <c r="N78" s="38"/>
       <c r="O78" s="38"/>
       <c r="P78" s="38"/>
       <c r="Q78" s="37" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="R78" s="38"/>
       <c r="S78" s="38"/>

--- a/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96FB1F-6244-4FD0-B269-86C2D18FD536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F0AF54-7D8E-4C8B-B935-D848BFE74D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.はじめに" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.はじめに'!$A$1:$AI$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.はじめに'!$A$1:$AI$106</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>・開発者参照要否</t>
   </si>
@@ -283,6 +283,171 @@
     <t>Webドキュメント https://nablarch.github.io/docs/5u21/doc/index.html を参照することを前提としており、本書では触れていない。</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>1.4. 本書におけるJakartaEE仕様への読み替えについて</t>
+    <rPh sb="5" eb="7">
+      <t>ホンショ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>特に断りがない限り、以下の表記はJakarta EEの仕様を指すものとする。</t>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>表記</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Jakarta EE仕様</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>JSF</t>
+  </si>
+  <si>
+    <t>Jakarta Faces</t>
+  </si>
+  <si>
+    <t>JASPIC</t>
+  </si>
+  <si>
+    <t>Jakarta Authentication</t>
+  </si>
+  <si>
+    <t>JACC</t>
+  </si>
+  <si>
+    <t>Jakarta Authorization</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>Jakarta Messaging</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>Jakarta Persistence</t>
+  </si>
+  <si>
+    <t>JTA</t>
+  </si>
+  <si>
+    <t>Jakarta Transactions</t>
+  </si>
+  <si>
+    <t>JBatch / JSR352</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Jakarta Batch</t>
+  </si>
+  <si>
+    <t>JCA</t>
+  </si>
+  <si>
+    <t>Jakarta Connectors</t>
+  </si>
+  <si>
+    <t>JAF</t>
+  </si>
+  <si>
+    <t>Jakarta Activation</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>Jakarta Expression Language</t>
+  </si>
+  <si>
+    <t>EJB</t>
+  </si>
+  <si>
+    <t>Jakarta Enterprise Beans</t>
+  </si>
+  <si>
+    <t>JAXB</t>
+  </si>
+  <si>
+    <t>Jakarta XML Binding</t>
+  </si>
+  <si>
+    <t>JSON-B</t>
+  </si>
+  <si>
+    <t>Jakarta JSON Binding</t>
+  </si>
+  <si>
+    <t>JSON-P</t>
+  </si>
+  <si>
+    <t>Jakarta JSON Processing</t>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t>Jakarta Server Pages</t>
+  </si>
+  <si>
+    <t>JAX-WS</t>
+  </si>
+  <si>
+    <t>Jakarta XML Web Services</t>
+  </si>
+  <si>
+    <t>JAX-RS</t>
+  </si>
+  <si>
+    <t>Jakarta RESTful Web Services</t>
+  </si>
+  <si>
+    <t>JSTL</t>
+  </si>
+  <si>
+    <t>Jakarta Standard Tag Library</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>Jakarta Contexts and Dependency Injection</t>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +503,12 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -502,15 +673,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,9 +869,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{406E4E0C-DF00-41EC-B045-30CE6A61282A}"/>
     <cellStyle name="標準 3 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_画面標準" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準_画面標準定義" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -3330,7 +3515,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI506"/>
+  <dimension ref="A1:AI531"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -4172,96 +4357,604 @@
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
-      <c r="AB81" s="4"/>
-      <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="4"/>
-      <c r="AF81" s="4"/>
-      <c r="AG81" s="4"/>
-      <c r="AH81" s="4"/>
-    </row>
-    <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C81" s="62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D83" s="62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D85" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F85" s="70"/>
+      <c r="G85" s="70"/>
+      <c r="H85" s="70"/>
+      <c r="I85" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="J85" s="71"/>
+      <c r="K85" s="70"/>
+      <c r="L85" s="70"/>
+      <c r="M85" s="70"/>
+      <c r="N85" s="70"/>
+      <c r="O85" s="70"/>
+      <c r="P85" s="70"/>
+      <c r="Q85" s="70"/>
+      <c r="R85" s="70"/>
+      <c r="S85" s="70"/>
+      <c r="T85" s="71"/>
+      <c r="U85" s="63"/>
+    </row>
+    <row r="86" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D86" s="64">
+        <v>1</v>
+      </c>
+      <c r="E86" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86" s="65"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="J86" s="67"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
+      <c r="M86" s="65"/>
+      <c r="N86" s="65"/>
+      <c r="O86" s="65"/>
+      <c r="P86" s="65"/>
+      <c r="Q86" s="65"/>
+      <c r="R86" s="65"/>
+      <c r="S86" s="65"/>
+      <c r="T86" s="67"/>
+      <c r="U86" s="63"/>
+    </row>
+    <row r="87" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D87" s="64">
+        <v>2</v>
+      </c>
+      <c r="E87" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" s="65"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="J87" s="67"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
+      <c r="M87" s="65"/>
+      <c r="N87" s="65"/>
+      <c r="O87" s="65"/>
+      <c r="P87" s="65"/>
+      <c r="Q87" s="65"/>
+      <c r="R87" s="65"/>
+      <c r="S87" s="65"/>
+      <c r="T87" s="67"/>
+      <c r="U87" s="63"/>
+    </row>
+    <row r="88" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D88" s="64">
+        <v>3</v>
+      </c>
+      <c r="E88" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="J88" s="67"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="65"/>
+      <c r="N88" s="65"/>
+      <c r="O88" s="65"/>
+      <c r="P88" s="65"/>
+      <c r="Q88" s="65"/>
+      <c r="R88" s="65"/>
+      <c r="S88" s="65"/>
+      <c r="T88" s="67"/>
+      <c r="U88" s="63"/>
+    </row>
+    <row r="89" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D89" s="64">
+        <v>4</v>
+      </c>
+      <c r="E89" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" s="65"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="65"/>
+      <c r="I89" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="J89" s="67"/>
+      <c r="K89" s="65"/>
+      <c r="L89" s="65"/>
+      <c r="M89" s="65"/>
+      <c r="N89" s="65"/>
+      <c r="O89" s="65"/>
+      <c r="P89" s="65"/>
+      <c r="Q89" s="65"/>
+      <c r="R89" s="65"/>
+      <c r="S89" s="65"/>
+      <c r="T89" s="67"/>
+      <c r="U89" s="63"/>
+    </row>
+    <row r="90" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D90" s="64">
+        <v>5</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="J90" s="67"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
+      <c r="M90" s="65"/>
+      <c r="N90" s="65"/>
+      <c r="O90" s="65"/>
+      <c r="P90" s="65"/>
+      <c r="Q90" s="65"/>
+      <c r="R90" s="65"/>
+      <c r="S90" s="65"/>
+      <c r="T90" s="67"/>
+      <c r="U90" s="63"/>
+    </row>
+    <row r="91" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D91" s="64">
+        <v>6</v>
+      </c>
+      <c r="E91" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="J91" s="67"/>
+      <c r="K91" s="65"/>
+      <c r="L91" s="65"/>
+      <c r="M91" s="65"/>
+      <c r="N91" s="65"/>
+      <c r="O91" s="65"/>
+      <c r="P91" s="65"/>
+      <c r="Q91" s="65"/>
+      <c r="R91" s="65"/>
+      <c r="S91" s="65"/>
+      <c r="T91" s="67"/>
+      <c r="U91" s="63"/>
+    </row>
+    <row r="92" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D92" s="64">
+        <v>7</v>
+      </c>
+      <c r="E92" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J92" s="67"/>
+      <c r="K92" s="65"/>
+      <c r="L92" s="65"/>
+      <c r="M92" s="65"/>
+      <c r="N92" s="65"/>
+      <c r="O92" s="65"/>
+      <c r="P92" s="65"/>
+      <c r="Q92" s="65"/>
+      <c r="R92" s="65"/>
+      <c r="S92" s="65"/>
+      <c r="T92" s="67"/>
+      <c r="U92" s="63"/>
+    </row>
+    <row r="93" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D93" s="64">
+        <v>8</v>
+      </c>
+      <c r="E93" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="J93" s="67"/>
+      <c r="K93" s="65"/>
+      <c r="L93" s="65"/>
+      <c r="M93" s="65"/>
+      <c r="N93" s="65"/>
+      <c r="O93" s="65"/>
+      <c r="P93" s="65"/>
+      <c r="Q93" s="65"/>
+      <c r="R93" s="65"/>
+      <c r="S93" s="65"/>
+      <c r="T93" s="67"/>
+      <c r="U93" s="63"/>
+    </row>
+    <row r="94" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D94" s="64">
+        <v>9</v>
+      </c>
+      <c r="E94" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="J94" s="67"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="65"/>
+      <c r="M94" s="65"/>
+      <c r="N94" s="65"/>
+      <c r="O94" s="65"/>
+      <c r="P94" s="65"/>
+      <c r="Q94" s="65"/>
+      <c r="R94" s="65"/>
+      <c r="S94" s="65"/>
+      <c r="T94" s="67"/>
+      <c r="U94" s="63"/>
+    </row>
+    <row r="95" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D95" s="64">
+        <v>10</v>
+      </c>
+      <c r="E95" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="J95" s="67"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
+      <c r="M95" s="65"/>
+      <c r="N95" s="65"/>
+      <c r="O95" s="65"/>
+      <c r="P95" s="65"/>
+      <c r="Q95" s="65"/>
+      <c r="R95" s="65"/>
+      <c r="S95" s="65"/>
+      <c r="T95" s="67"/>
+      <c r="U95" s="63"/>
+    </row>
+    <row r="96" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D96" s="64">
+        <v>11</v>
+      </c>
+      <c r="E96" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J96" s="67"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="65"/>
+      <c r="Q96" s="65"/>
+      <c r="R96" s="65"/>
+      <c r="S96" s="65"/>
+      <c r="T96" s="67"/>
+      <c r="U96" s="63"/>
+    </row>
+    <row r="97" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D97" s="64">
+        <v>12</v>
+      </c>
+      <c r="E97" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="J97" s="67"/>
+      <c r="K97" s="65"/>
+      <c r="L97" s="65"/>
+      <c r="M97" s="65"/>
+      <c r="N97" s="65"/>
+      <c r="O97" s="65"/>
+      <c r="P97" s="65"/>
+      <c r="Q97" s="65"/>
+      <c r="R97" s="65"/>
+      <c r="S97" s="65"/>
+      <c r="T97" s="67"/>
+      <c r="U97" s="63"/>
+    </row>
+    <row r="98" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D98" s="64">
+        <v>13</v>
+      </c>
+      <c r="E98" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="J98" s="67"/>
+      <c r="K98" s="65"/>
+      <c r="L98" s="65"/>
+      <c r="M98" s="65"/>
+      <c r="N98" s="65"/>
+      <c r="O98" s="65"/>
+      <c r="P98" s="65"/>
+      <c r="Q98" s="65"/>
+      <c r="R98" s="65"/>
+      <c r="S98" s="65"/>
+      <c r="T98" s="67"/>
+      <c r="U98" s="63"/>
+    </row>
+    <row r="99" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D99" s="64">
+        <v>14</v>
+      </c>
+      <c r="E99" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="J99" s="67"/>
+      <c r="K99" s="65"/>
+      <c r="L99" s="65"/>
+      <c r="M99" s="65"/>
+      <c r="N99" s="65"/>
+      <c r="O99" s="65"/>
+      <c r="P99" s="65"/>
+      <c r="Q99" s="65"/>
+      <c r="R99" s="65"/>
+      <c r="S99" s="65"/>
+      <c r="T99" s="67"/>
+      <c r="U99" s="63"/>
+    </row>
+    <row r="100" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D100" s="64">
+        <v>15</v>
+      </c>
+      <c r="E100" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="J100" s="67"/>
+      <c r="K100" s="65"/>
+      <c r="L100" s="65"/>
+      <c r="M100" s="65"/>
+      <c r="N100" s="65"/>
+      <c r="O100" s="65"/>
+      <c r="P100" s="65"/>
+      <c r="Q100" s="65"/>
+      <c r="R100" s="65"/>
+      <c r="S100" s="65"/>
+      <c r="T100" s="67"/>
+      <c r="U100" s="63"/>
+    </row>
+    <row r="101" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D101" s="64">
+        <v>16</v>
+      </c>
+      <c r="E101" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="J101" s="67"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="65"/>
+      <c r="M101" s="65"/>
+      <c r="N101" s="65"/>
+      <c r="O101" s="65"/>
+      <c r="P101" s="65"/>
+      <c r="Q101" s="65"/>
+      <c r="R101" s="65"/>
+      <c r="S101" s="65"/>
+      <c r="T101" s="67"/>
+      <c r="U101" s="63"/>
+    </row>
+    <row r="102" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D102" s="64">
+        <v>17</v>
+      </c>
+      <c r="E102" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="J102" s="67"/>
+      <c r="K102" s="65"/>
+      <c r="L102" s="65"/>
+      <c r="M102" s="65"/>
+      <c r="N102" s="65"/>
+      <c r="O102" s="65"/>
+      <c r="P102" s="65"/>
+      <c r="Q102" s="65"/>
+      <c r="R102" s="65"/>
+      <c r="S102" s="65"/>
+      <c r="T102" s="67"/>
+      <c r="U102" s="63"/>
+    </row>
+    <row r="103" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D103" s="64">
+        <v>18</v>
+      </c>
+      <c r="E103" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="J103" s="67"/>
+      <c r="K103" s="65"/>
+      <c r="L103" s="65"/>
+      <c r="M103" s="65"/>
+      <c r="N103" s="65"/>
+      <c r="O103" s="65"/>
+      <c r="P103" s="65"/>
+      <c r="Q103" s="65"/>
+      <c r="R103" s="65"/>
+      <c r="S103" s="65"/>
+      <c r="T103" s="67"/>
+      <c r="U103" s="63"/>
+    </row>
+    <row r="104" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D104" s="64">
+        <v>19</v>
+      </c>
+      <c r="E104" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="J104" s="67"/>
+      <c r="K104" s="65"/>
+      <c r="L104" s="65"/>
+      <c r="M104" s="65"/>
+      <c r="N104" s="65"/>
+      <c r="O104" s="65"/>
+      <c r="P104" s="65"/>
+      <c r="Q104" s="65"/>
+      <c r="R104" s="65"/>
+      <c r="S104" s="65"/>
+      <c r="T104" s="67"/>
+      <c r="U104" s="63"/>
+    </row>
+    <row r="105" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
+      <c r="AB106" s="4"/>
+      <c r="AC106" s="4"/>
+      <c r="AD106" s="4"/>
+      <c r="AE106" s="4"/>
+      <c r="AF106" s="4"/>
+      <c r="AG106" s="4"/>
+      <c r="AH106" s="4"/>
+    </row>
+    <row r="107" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4640,6 +5333,31 @@
     <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="505" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="506" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AA3:AE3"/>
@@ -4655,12 +5373,33 @@
     <mergeCell ref="E3:O3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="AB86" r:id="rId1" display="https://jakarta.ee/specifications/faces/" xr:uid="{782B74A1-89FC-480C-AE47-7C2520095F9A}"/>
+    <hyperlink ref="AB87" r:id="rId2" display="https://jakarta.ee/specifications/authentication/" xr:uid="{6C06BB29-4933-4C88-B41A-B0AAA657D3A9}"/>
+    <hyperlink ref="AB88" r:id="rId3" display="https://jakarta.ee/specifications/authorization/" xr:uid="{BBB03EDE-15E8-4005-AED7-30E923F89391}"/>
+    <hyperlink ref="AB89" r:id="rId4" display="https://jakarta.ee/specifications/messaging/" xr:uid="{72C31096-8AC7-4347-8582-2CC62C44DC73}"/>
+    <hyperlink ref="AB90" r:id="rId5" display="https://jakarta.ee/specifications/persistence/" xr:uid="{3DBDD60C-3BBC-45EB-82D1-D853F873E999}"/>
+    <hyperlink ref="AB91" r:id="rId6" display="https://jakarta.ee/specifications/transactions/" xr:uid="{5D688F39-A34D-4C5A-858D-B3EA812C6354}"/>
+    <hyperlink ref="AB92" r:id="rId7" display="https://jakarta.ee/specifications/batch/" xr:uid="{BA519FE1-39F7-4575-8800-D4ECA62A4672}"/>
+    <hyperlink ref="AB93" r:id="rId8" display="https://jakarta.ee/specifications/connectors/" xr:uid="{1DDCC83F-DC00-4CCD-8673-A7E27FB9D8FE}"/>
+    <hyperlink ref="AB94" r:id="rId9" display="https://jakarta.ee/specifications/activation/" xr:uid="{A82BF3B3-D769-4C05-9EED-4055CA13CABA}"/>
+    <hyperlink ref="AB95" r:id="rId10" display="https://jakarta.ee/specifications/expression-language/" xr:uid="{21619010-89F8-4EA9-8831-6EC957CC1F48}"/>
+    <hyperlink ref="AB96" r:id="rId11" display="https://jakarta.ee/specifications/enterprise-beans/" xr:uid="{C5F54307-D617-4471-B421-E09C264A1B99}"/>
+    <hyperlink ref="AB97" r:id="rId12" display="https://jakarta.ee/specifications/xml-binding/" xr:uid="{4C14C032-4474-4EEC-A103-5C4C274D58E6}"/>
+    <hyperlink ref="AB98" r:id="rId13" display="https://jakarta.ee/specifications/jsonb/" xr:uid="{02B4DFEB-C762-4AD0-B13E-33ECBDD78F12}"/>
+    <hyperlink ref="AB99" r:id="rId14" display="https://jakarta.ee/specifications/jsonp/" xr:uid="{131DFA28-7FA9-4EDA-B88F-D5CEE6B1EC48}"/>
+    <hyperlink ref="AB100" r:id="rId15" display="https://jakarta.ee/specifications/pages/" xr:uid="{112828A6-064D-4355-B811-4434E4708436}"/>
+    <hyperlink ref="AB101" r:id="rId16" display="https://jakarta.ee/specifications/xml-web-services/" xr:uid="{A439A1CD-1FD5-4481-BF7C-734038061FBF}"/>
+    <hyperlink ref="AB102" r:id="rId17" display="https://jakarta.ee/specifications/restful-ws/" xr:uid="{361F1A55-B566-4540-8D9B-977071236FC0}"/>
+    <hyperlink ref="AB103" r:id="rId18" display="https://jakarta.ee/specifications/tags/" xr:uid="{EE417ADE-AD06-4BDF-A2C1-DB97994F2816}"/>
+    <hyperlink ref="AB104" r:id="rId19" display="https://jakarta.ee/specifications/cdi/" xr:uid="{79E3E807-CF9C-4C0B-8EB3-F6D1AB359447}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId20"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="22" max="34" man="1"/>
     <brk id="64" max="34" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F0AF54-7D8E-4C8B-B935-D848BFE74D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE364D91-8F06-412A-B2FE-3FC66D1B9DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.はじめに" sheetId="1" r:id="rId1"/>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Webドキュメント https://nablarch.github.io/docs/5u21/doc/index.html を参照することを前提としており、本書では触れていない。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.4. 本書におけるJakartaEE仕様への読み替えについて</t>
     <rPh sb="5" eb="7">
       <t>ホンショ</t>
@@ -447,6 +443,10 @@
   </si>
   <si>
     <t>Jakarta Contexts and Dependency Injection</t>
+  </si>
+  <si>
+    <t>Webドキュメント https://nablarch.github.io/docs/6u2/doc/index.html を参照することを前提としており、本書では触れていない。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -803,72 +803,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1"/>
@@ -881,6 +815,72 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -932,8 +932,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="828675" y="3543300"/>
-          <a:ext cx="7954108" cy="5467350"/>
+          <a:off x="838200" y="3619500"/>
+          <a:ext cx="8046183" cy="5588000"/>
           <a:chOff x="1197" y="5952"/>
           <a:chExt cx="9987" cy="8614"/>
         </a:xfrm>
@@ -3531,45 +3531,45 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24"/>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58"/>
       <c r="P1" s="27" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="33"/>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="51"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="61"/>
       <c r="Y1" s="27" t="s">
         <v>15</v>
       </c>
       <c r="Z1" s="24"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="45"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="55"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
@@ -3578,43 +3578,43 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="28"/>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="57"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
       <c r="Y2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="Z2" s="24"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="45"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="55"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
@@ -3623,39 +3623,39 @@
       <c r="B3" s="26"/>
       <c r="C3" s="25"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="23"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="60"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="70"/>
       <c r="Y3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="45"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="55"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3733,7 +3733,7 @@
     </row>
     <row r="19" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4357,539 +4357,539 @@
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="C81" s="62" t="s">
+    <row r="81" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C81" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D83" s="40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="83" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D83" s="62" t="s">
+    <row r="84" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D85" s="46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D85" s="68" t="s">
+      <c r="E85" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E85" s="69" t="s">
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="F85" s="70"/>
-      <c r="G85" s="70"/>
-      <c r="H85" s="70"/>
-      <c r="I85" s="69" t="s">
+      <c r="J85" s="49"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="48"/>
+      <c r="P85" s="48"/>
+      <c r="Q85" s="48"/>
+      <c r="R85" s="48"/>
+      <c r="S85" s="48"/>
+      <c r="T85" s="49"/>
+      <c r="U85" s="41"/>
+    </row>
+    <row r="86" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D86" s="42">
+        <v>1</v>
+      </c>
+      <c r="E86" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="J85" s="71"/>
-      <c r="K85" s="70"/>
-      <c r="L85" s="70"/>
-      <c r="M85" s="70"/>
-      <c r="N85" s="70"/>
-      <c r="O85" s="70"/>
-      <c r="P85" s="70"/>
-      <c r="Q85" s="70"/>
-      <c r="R85" s="70"/>
-      <c r="S85" s="70"/>
-      <c r="T85" s="71"/>
-      <c r="U85" s="63"/>
-    </row>
-    <row r="86" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D86" s="64">
-        <v>1</v>
-      </c>
-      <c r="E86" s="64" t="s">
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="F86" s="65"/>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="66" t="s">
+      <c r="J86" s="45"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="41"/>
+    </row>
+    <row r="87" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D87" s="42">
+        <v>2</v>
+      </c>
+      <c r="E87" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="J86" s="67"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="65"/>
-      <c r="M86" s="65"/>
-      <c r="N86" s="65"/>
-      <c r="O86" s="65"/>
-      <c r="P86" s="65"/>
-      <c r="Q86" s="65"/>
-      <c r="R86" s="65"/>
-      <c r="S86" s="65"/>
-      <c r="T86" s="67"/>
-      <c r="U86" s="63"/>
-    </row>
-    <row r="87" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D87" s="64">
-        <v>2</v>
-      </c>
-      <c r="E87" s="64" t="s">
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="66" t="s">
+      <c r="J87" s="45"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="41"/>
+    </row>
+    <row r="88" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D88" s="42">
+        <v>3</v>
+      </c>
+      <c r="E88" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="J87" s="67"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="65"/>
-      <c r="N87" s="65"/>
-      <c r="O87" s="65"/>
-      <c r="P87" s="65"/>
-      <c r="Q87" s="65"/>
-      <c r="R87" s="65"/>
-      <c r="S87" s="65"/>
-      <c r="T87" s="67"/>
-      <c r="U87" s="63"/>
-    </row>
-    <row r="88" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D88" s="64">
-        <v>3</v>
-      </c>
-      <c r="E88" s="64" t="s">
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="66" t="s">
+      <c r="J88" s="45"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="41"/>
+    </row>
+    <row r="89" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D89" s="42">
+        <v>4</v>
+      </c>
+      <c r="E89" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="J88" s="67"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
-      <c r="M88" s="65"/>
-      <c r="N88" s="65"/>
-      <c r="O88" s="65"/>
-      <c r="P88" s="65"/>
-      <c r="Q88" s="65"/>
-      <c r="R88" s="65"/>
-      <c r="S88" s="65"/>
-      <c r="T88" s="67"/>
-      <c r="U88" s="63"/>
-    </row>
-    <row r="89" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D89" s="64">
-        <v>4</v>
-      </c>
-      <c r="E89" s="64" t="s">
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="F89" s="65"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="66" t="s">
+      <c r="J89" s="45"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="41"/>
+    </row>
+    <row r="90" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D90" s="42">
+        <v>5</v>
+      </c>
+      <c r="E90" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="J89" s="67"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="65"/>
-      <c r="M89" s="65"/>
-      <c r="N89" s="65"/>
-      <c r="O89" s="65"/>
-      <c r="P89" s="65"/>
-      <c r="Q89" s="65"/>
-      <c r="R89" s="65"/>
-      <c r="S89" s="65"/>
-      <c r="T89" s="67"/>
-      <c r="U89" s="63"/>
-    </row>
-    <row r="90" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D90" s="64">
-        <v>5</v>
-      </c>
-      <c r="E90" s="64" t="s">
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="66" t="s">
+      <c r="J90" s="45"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
+      <c r="Q90" s="43"/>
+      <c r="R90" s="43"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="41"/>
+    </row>
+    <row r="91" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D91" s="42">
+        <v>6</v>
+      </c>
+      <c r="E91" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="J90" s="67"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="65"/>
-      <c r="M90" s="65"/>
-      <c r="N90" s="65"/>
-      <c r="O90" s="65"/>
-      <c r="P90" s="65"/>
-      <c r="Q90" s="65"/>
-      <c r="R90" s="65"/>
-      <c r="S90" s="65"/>
-      <c r="T90" s="67"/>
-      <c r="U90" s="63"/>
-    </row>
-    <row r="91" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D91" s="64">
-        <v>6</v>
-      </c>
-      <c r="E91" s="64" t="s">
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="66" t="s">
+      <c r="J91" s="45"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="41"/>
+    </row>
+    <row r="92" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D92" s="42">
+        <v>7</v>
+      </c>
+      <c r="E92" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="J91" s="67"/>
-      <c r="K91" s="65"/>
-      <c r="L91" s="65"/>
-      <c r="M91" s="65"/>
-      <c r="N91" s="65"/>
-      <c r="O91" s="65"/>
-      <c r="P91" s="65"/>
-      <c r="Q91" s="65"/>
-      <c r="R91" s="65"/>
-      <c r="S91" s="65"/>
-      <c r="T91" s="67"/>
-      <c r="U91" s="63"/>
-    </row>
-    <row r="92" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D92" s="64">
-        <v>7</v>
-      </c>
-      <c r="E92" s="64" t="s">
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="66" t="s">
+      <c r="J92" s="45"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="41"/>
+    </row>
+    <row r="93" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D93" s="42">
+        <v>8</v>
+      </c>
+      <c r="E93" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J92" s="67"/>
-      <c r="K92" s="65"/>
-      <c r="L92" s="65"/>
-      <c r="M92" s="65"/>
-      <c r="N92" s="65"/>
-      <c r="O92" s="65"/>
-      <c r="P92" s="65"/>
-      <c r="Q92" s="65"/>
-      <c r="R92" s="65"/>
-      <c r="S92" s="65"/>
-      <c r="T92" s="67"/>
-      <c r="U92" s="63"/>
-    </row>
-    <row r="93" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D93" s="64">
-        <v>8</v>
-      </c>
-      <c r="E93" s="64" t="s">
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65"/>
-      <c r="H93" s="65"/>
-      <c r="I93" s="66" t="s">
+      <c r="J93" s="45"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="43"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="41"/>
+    </row>
+    <row r="94" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D94" s="42">
+        <v>9</v>
+      </c>
+      <c r="E94" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="J93" s="67"/>
-      <c r="K93" s="65"/>
-      <c r="L93" s="65"/>
-      <c r="M93" s="65"/>
-      <c r="N93" s="65"/>
-      <c r="O93" s="65"/>
-      <c r="P93" s="65"/>
-      <c r="Q93" s="65"/>
-      <c r="R93" s="65"/>
-      <c r="S93" s="65"/>
-      <c r="T93" s="67"/>
-      <c r="U93" s="63"/>
-    </row>
-    <row r="94" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D94" s="64">
-        <v>9</v>
-      </c>
-      <c r="E94" s="64" t="s">
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="66" t="s">
+      <c r="J94" s="45"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
+      <c r="Q94" s="43"/>
+      <c r="R94" s="43"/>
+      <c r="S94" s="43"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="41"/>
+    </row>
+    <row r="95" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D95" s="42">
+        <v>10</v>
+      </c>
+      <c r="E95" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="J94" s="67"/>
-      <c r="K94" s="65"/>
-      <c r="L94" s="65"/>
-      <c r="M94" s="65"/>
-      <c r="N94" s="65"/>
-      <c r="O94" s="65"/>
-      <c r="P94" s="65"/>
-      <c r="Q94" s="65"/>
-      <c r="R94" s="65"/>
-      <c r="S94" s="65"/>
-      <c r="T94" s="67"/>
-      <c r="U94" s="63"/>
-    </row>
-    <row r="95" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D95" s="64">
-        <v>10</v>
-      </c>
-      <c r="E95" s="64" t="s">
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="66" t="s">
+      <c r="J95" s="45"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="45"/>
+      <c r="U95" s="41"/>
+    </row>
+    <row r="96" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D96" s="42">
+        <v>11</v>
+      </c>
+      <c r="E96" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J95" s="67"/>
-      <c r="K95" s="65"/>
-      <c r="L95" s="65"/>
-      <c r="M95" s="65"/>
-      <c r="N95" s="65"/>
-      <c r="O95" s="65"/>
-      <c r="P95" s="65"/>
-      <c r="Q95" s="65"/>
-      <c r="R95" s="65"/>
-      <c r="S95" s="65"/>
-      <c r="T95" s="67"/>
-      <c r="U95" s="63"/>
-    </row>
-    <row r="96" spans="3:21" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D96" s="64">
-        <v>11</v>
-      </c>
-      <c r="E96" s="64" t="s">
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="66" t="s">
+      <c r="J96" s="45"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
+      <c r="S96" s="43"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="41"/>
+    </row>
+    <row r="97" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D97" s="42">
+        <v>12</v>
+      </c>
+      <c r="E97" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="J96" s="67"/>
-      <c r="K96" s="65"/>
-      <c r="L96" s="65"/>
-      <c r="M96" s="65"/>
-      <c r="N96" s="65"/>
-      <c r="O96" s="65"/>
-      <c r="P96" s="65"/>
-      <c r="Q96" s="65"/>
-      <c r="R96" s="65"/>
-      <c r="S96" s="65"/>
-      <c r="T96" s="67"/>
-      <c r="U96" s="63"/>
-    </row>
-    <row r="97" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D97" s="64">
-        <v>12</v>
-      </c>
-      <c r="E97" s="64" t="s">
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F97" s="65"/>
-      <c r="G97" s="65"/>
-      <c r="H97" s="65"/>
-      <c r="I97" s="66" t="s">
+      <c r="J97" s="45"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="43"/>
+      <c r="O97" s="43"/>
+      <c r="P97" s="43"/>
+      <c r="Q97" s="43"/>
+      <c r="R97" s="43"/>
+      <c r="S97" s="43"/>
+      <c r="T97" s="45"/>
+      <c r="U97" s="41"/>
+    </row>
+    <row r="98" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D98" s="42">
+        <v>13</v>
+      </c>
+      <c r="E98" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="J97" s="67"/>
-      <c r="K97" s="65"/>
-      <c r="L97" s="65"/>
-      <c r="M97" s="65"/>
-      <c r="N97" s="65"/>
-      <c r="O97" s="65"/>
-      <c r="P97" s="65"/>
-      <c r="Q97" s="65"/>
-      <c r="R97" s="65"/>
-      <c r="S97" s="65"/>
-      <c r="T97" s="67"/>
-      <c r="U97" s="63"/>
-    </row>
-    <row r="98" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D98" s="64">
-        <v>13</v>
-      </c>
-      <c r="E98" s="64" t="s">
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F98" s="65"/>
-      <c r="G98" s="65"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="66" t="s">
+      <c r="J98" s="45"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="43"/>
+      <c r="Q98" s="43"/>
+      <c r="R98" s="43"/>
+      <c r="S98" s="43"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="41"/>
+    </row>
+    <row r="99" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D99" s="42">
+        <v>14</v>
+      </c>
+      <c r="E99" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="J98" s="67"/>
-      <c r="K98" s="65"/>
-      <c r="L98" s="65"/>
-      <c r="M98" s="65"/>
-      <c r="N98" s="65"/>
-      <c r="O98" s="65"/>
-      <c r="P98" s="65"/>
-      <c r="Q98" s="65"/>
-      <c r="R98" s="65"/>
-      <c r="S98" s="65"/>
-      <c r="T98" s="67"/>
-      <c r="U98" s="63"/>
-    </row>
-    <row r="99" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D99" s="64">
-        <v>14</v>
-      </c>
-      <c r="E99" s="64" t="s">
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="F99" s="65"/>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="66" t="s">
+      <c r="J99" s="45"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="45"/>
+      <c r="U99" s="41"/>
+    </row>
+    <row r="100" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D100" s="42">
+        <v>15</v>
+      </c>
+      <c r="E100" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="J99" s="67"/>
-      <c r="K99" s="65"/>
-      <c r="L99" s="65"/>
-      <c r="M99" s="65"/>
-      <c r="N99" s="65"/>
-      <c r="O99" s="65"/>
-      <c r="P99" s="65"/>
-      <c r="Q99" s="65"/>
-      <c r="R99" s="65"/>
-      <c r="S99" s="65"/>
-      <c r="T99" s="67"/>
-      <c r="U99" s="63"/>
-    </row>
-    <row r="100" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D100" s="64">
-        <v>15</v>
-      </c>
-      <c r="E100" s="64" t="s">
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F100" s="65"/>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="66" t="s">
+      <c r="J100" s="45"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+      <c r="Q100" s="43"/>
+      <c r="R100" s="43"/>
+      <c r="S100" s="43"/>
+      <c r="T100" s="45"/>
+      <c r="U100" s="41"/>
+    </row>
+    <row r="101" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D101" s="42">
+        <v>16</v>
+      </c>
+      <c r="E101" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="J100" s="67"/>
-      <c r="K100" s="65"/>
-      <c r="L100" s="65"/>
-      <c r="M100" s="65"/>
-      <c r="N100" s="65"/>
-      <c r="O100" s="65"/>
-      <c r="P100" s="65"/>
-      <c r="Q100" s="65"/>
-      <c r="R100" s="65"/>
-      <c r="S100" s="65"/>
-      <c r="T100" s="67"/>
-      <c r="U100" s="63"/>
-    </row>
-    <row r="101" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D101" s="64">
-        <v>16</v>
-      </c>
-      <c r="E101" s="64" t="s">
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="65"/>
-      <c r="I101" s="66" t="s">
+      <c r="J101" s="45"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
+      <c r="O101" s="43"/>
+      <c r="P101" s="43"/>
+      <c r="Q101" s="43"/>
+      <c r="R101" s="43"/>
+      <c r="S101" s="43"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="41"/>
+    </row>
+    <row r="102" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D102" s="42">
+        <v>17</v>
+      </c>
+      <c r="E102" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="J101" s="67"/>
-      <c r="K101" s="65"/>
-      <c r="L101" s="65"/>
-      <c r="M101" s="65"/>
-      <c r="N101" s="65"/>
-      <c r="O101" s="65"/>
-      <c r="P101" s="65"/>
-      <c r="Q101" s="65"/>
-      <c r="R101" s="65"/>
-      <c r="S101" s="65"/>
-      <c r="T101" s="67"/>
-      <c r="U101" s="63"/>
-    </row>
-    <row r="102" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D102" s="64">
-        <v>17</v>
-      </c>
-      <c r="E102" s="64" t="s">
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="66" t="s">
+      <c r="J102" s="45"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="43"/>
+      <c r="P102" s="43"/>
+      <c r="Q102" s="43"/>
+      <c r="R102" s="43"/>
+      <c r="S102" s="43"/>
+      <c r="T102" s="45"/>
+      <c r="U102" s="41"/>
+    </row>
+    <row r="103" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D103" s="42">
+        <v>18</v>
+      </c>
+      <c r="E103" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="J102" s="67"/>
-      <c r="K102" s="65"/>
-      <c r="L102" s="65"/>
-      <c r="M102" s="65"/>
-      <c r="N102" s="65"/>
-      <c r="O102" s="65"/>
-      <c r="P102" s="65"/>
-      <c r="Q102" s="65"/>
-      <c r="R102" s="65"/>
-      <c r="S102" s="65"/>
-      <c r="T102" s="67"/>
-      <c r="U102" s="63"/>
-    </row>
-    <row r="103" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D103" s="64">
-        <v>18</v>
-      </c>
-      <c r="E103" s="64" t="s">
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="66" t="s">
+      <c r="J103" s="45"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
+      <c r="O103" s="43"/>
+      <c r="P103" s="43"/>
+      <c r="Q103" s="43"/>
+      <c r="R103" s="43"/>
+      <c r="S103" s="43"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="41"/>
+    </row>
+    <row r="104" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D104" s="42">
+        <v>19</v>
+      </c>
+      <c r="E104" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="J103" s="67"/>
-      <c r="K103" s="65"/>
-      <c r="L103" s="65"/>
-      <c r="M103" s="65"/>
-      <c r="N103" s="65"/>
-      <c r="O103" s="65"/>
-      <c r="P103" s="65"/>
-      <c r="Q103" s="65"/>
-      <c r="R103" s="65"/>
-      <c r="S103" s="65"/>
-      <c r="T103" s="67"/>
-      <c r="U103" s="63"/>
-    </row>
-    <row r="104" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="D104" s="64">
-        <v>19</v>
-      </c>
-      <c r="E104" s="64" t="s">
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="F104" s="65"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="65"/>
-      <c r="I104" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="J104" s="67"/>
-      <c r="K104" s="65"/>
-      <c r="L104" s="65"/>
-      <c r="M104" s="65"/>
-      <c r="N104" s="65"/>
-      <c r="O104" s="65"/>
-      <c r="P104" s="65"/>
-      <c r="Q104" s="65"/>
-      <c r="R104" s="65"/>
-      <c r="S104" s="65"/>
-      <c r="T104" s="67"/>
-      <c r="U104" s="63"/>
-    </row>
-    <row r="105" spans="4:34" s="62" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+      <c r="J104" s="45"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
+      <c r="O104" s="43"/>
+      <c r="P104" s="43"/>
+      <c r="Q104" s="43"/>
+      <c r="R104" s="43"/>
+      <c r="S104" s="43"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="41"/>
+    </row>
+    <row r="105" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="106" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>

--- a/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96FB1F-6244-4FD0-B269-86C2D18FD536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE364D91-8F06-412A-B2FE-3FC66D1B9DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.はじめに" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.はじめに'!$A$1:$AI$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1.はじめに'!$A$1:$AI$106</definedName>
     <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
     <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
     <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'1.はじめに'!$A$1:$AI$80</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>・開発者参照要否</t>
   </si>
@@ -280,7 +280,172 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Webドキュメント https://nablarch.github.io/docs/5u21/doc/index.html を参照することを前提としており、本書では触れていない。</t>
+    <t>1.4. 本書におけるJakartaEE仕様への読み替えについて</t>
+    <rPh sb="5" eb="7">
+      <t>ホンショ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>特に断りがない限り、以下の表記はJakarta EEの仕様を指すものとする。</t>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>表記</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Jakarta EE仕様</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>JSF</t>
+  </si>
+  <si>
+    <t>Jakarta Faces</t>
+  </si>
+  <si>
+    <t>JASPIC</t>
+  </si>
+  <si>
+    <t>Jakarta Authentication</t>
+  </si>
+  <si>
+    <t>JACC</t>
+  </si>
+  <si>
+    <t>Jakarta Authorization</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>Jakarta Messaging</t>
+  </si>
+  <si>
+    <t>JPA</t>
+  </si>
+  <si>
+    <t>Jakarta Persistence</t>
+  </si>
+  <si>
+    <t>JTA</t>
+  </si>
+  <si>
+    <t>Jakarta Transactions</t>
+  </si>
+  <si>
+    <t>JBatch / JSR352</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Jakarta Batch</t>
+  </si>
+  <si>
+    <t>JCA</t>
+  </si>
+  <si>
+    <t>Jakarta Connectors</t>
+  </si>
+  <si>
+    <t>JAF</t>
+  </si>
+  <si>
+    <t>Jakarta Activation</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>Jakarta Expression Language</t>
+  </si>
+  <si>
+    <t>EJB</t>
+  </si>
+  <si>
+    <t>Jakarta Enterprise Beans</t>
+  </si>
+  <si>
+    <t>JAXB</t>
+  </si>
+  <si>
+    <t>Jakarta XML Binding</t>
+  </si>
+  <si>
+    <t>JSON-B</t>
+  </si>
+  <si>
+    <t>Jakarta JSON Binding</t>
+  </si>
+  <si>
+    <t>JSON-P</t>
+  </si>
+  <si>
+    <t>Jakarta JSON Processing</t>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t>Jakarta Server Pages</t>
+  </si>
+  <si>
+    <t>JAX-WS</t>
+  </si>
+  <si>
+    <t>Jakarta XML Web Services</t>
+  </si>
+  <si>
+    <t>JAX-RS</t>
+  </si>
+  <si>
+    <t>Jakarta RESTful Web Services</t>
+  </si>
+  <si>
+    <t>JSTL</t>
+  </si>
+  <si>
+    <t>Jakarta Standard Tag Library</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>Jakarta Contexts and Dependency Injection</t>
+  </si>
+  <si>
+    <t>Webドキュメント https://nablarch.github.io/docs/6u2/doc/index.html を参照することを前提としており、本書では触れていない。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -291,7 +456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +503,12 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -502,15 +673,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -631,6 +803,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -698,8 +882,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="4" xr:uid="{406E4E0C-DF00-41EC-B045-30CE6A61282A}"/>
     <cellStyle name="標準 3 2 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_画面標準" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="標準_画面標準定義" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -747,8 +932,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="828675" y="3543300"/>
-          <a:ext cx="7954108" cy="5467350"/>
+          <a:off x="838200" y="3619500"/>
+          <a:ext cx="8046183" cy="5588000"/>
           <a:chOff x="1197" y="5952"/>
           <a:chExt cx="9987" cy="8614"/>
         </a:xfrm>
@@ -3330,7 +3515,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI506"/>
+  <dimension ref="A1:AI531"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -3346,45 +3531,45 @@
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="24"/>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58"/>
       <c r="P1" s="27" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="33"/>
-      <c r="R1" s="49" t="s">
+      <c r="R1" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="51"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="61"/>
       <c r="Y1" s="27" t="s">
         <v>15</v>
       </c>
       <c r="Z1" s="24"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="45"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="55"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
@@ -3393,43 +3578,43 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="64"/>
       <c r="P2" s="29" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="28"/>
-      <c r="R2" s="55" t="s">
+      <c r="R2" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="57"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
       <c r="Y2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="Z2" s="24"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="45"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="55"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
@@ -3438,39 +3623,39 @@
       <c r="B3" s="26"/>
       <c r="C3" s="25"/>
       <c r="D3" s="24"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="23"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="60"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="70"/>
       <c r="Y3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="45"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="55"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3548,7 +3733,7 @@
     </row>
     <row r="19" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4172,96 +4357,604 @@
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-      <c r="N81" s="4"/>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
-      <c r="AB81" s="4"/>
-      <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="4"/>
-      <c r="AF81" s="4"/>
-      <c r="AG81" s="4"/>
-      <c r="AH81" s="4"/>
-    </row>
-    <row r="82" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="5:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C81" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D83" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D85" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="J85" s="49"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="48"/>
+      <c r="P85" s="48"/>
+      <c r="Q85" s="48"/>
+      <c r="R85" s="48"/>
+      <c r="S85" s="48"/>
+      <c r="T85" s="49"/>
+      <c r="U85" s="41"/>
+    </row>
+    <row r="86" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D86" s="42">
+        <v>1</v>
+      </c>
+      <c r="E86" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="J86" s="45"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
+      <c r="O86" s="43"/>
+      <c r="P86" s="43"/>
+      <c r="Q86" s="43"/>
+      <c r="R86" s="43"/>
+      <c r="S86" s="43"/>
+      <c r="T86" s="45"/>
+      <c r="U86" s="41"/>
+    </row>
+    <row r="87" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D87" s="42">
+        <v>2</v>
+      </c>
+      <c r="E87" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J87" s="45"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
+      <c r="O87" s="43"/>
+      <c r="P87" s="43"/>
+      <c r="Q87" s="43"/>
+      <c r="R87" s="43"/>
+      <c r="S87" s="43"/>
+      <c r="T87" s="45"/>
+      <c r="U87" s="41"/>
+    </row>
+    <row r="88" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D88" s="42">
+        <v>3</v>
+      </c>
+      <c r="E88" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="J88" s="45"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
+      <c r="O88" s="43"/>
+      <c r="P88" s="43"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="43"/>
+      <c r="S88" s="43"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="41"/>
+    </row>
+    <row r="89" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D89" s="42">
+        <v>4</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="J89" s="45"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
+      <c r="O89" s="43"/>
+      <c r="P89" s="43"/>
+      <c r="Q89" s="43"/>
+      <c r="R89" s="43"/>
+      <c r="S89" s="43"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="41"/>
+    </row>
+    <row r="90" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D90" s="42">
+        <v>5</v>
+      </c>
+      <c r="E90" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="J90" s="45"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
+      <c r="O90" s="43"/>
+      <c r="P90" s="43"/>
+      <c r="Q90" s="43"/>
+      <c r="R90" s="43"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="41"/>
+    </row>
+    <row r="91" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D91" s="42">
+        <v>6</v>
+      </c>
+      <c r="E91" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J91" s="45"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="41"/>
+    </row>
+    <row r="92" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D92" s="42">
+        <v>7</v>
+      </c>
+      <c r="E92" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J92" s="45"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="43"/>
+      <c r="P92" s="43"/>
+      <c r="Q92" s="43"/>
+      <c r="R92" s="43"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="41"/>
+    </row>
+    <row r="93" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D93" s="42">
+        <v>8</v>
+      </c>
+      <c r="E93" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="J93" s="45"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="43"/>
+      <c r="P93" s="43"/>
+      <c r="Q93" s="43"/>
+      <c r="R93" s="43"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="41"/>
+    </row>
+    <row r="94" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D94" s="42">
+        <v>9</v>
+      </c>
+      <c r="E94" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="J94" s="45"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
+      <c r="Q94" s="43"/>
+      <c r="R94" s="43"/>
+      <c r="S94" s="43"/>
+      <c r="T94" s="45"/>
+      <c r="U94" s="41"/>
+    </row>
+    <row r="95" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D95" s="42">
+        <v>10</v>
+      </c>
+      <c r="E95" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J95" s="45"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="43"/>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="45"/>
+      <c r="U95" s="41"/>
+    </row>
+    <row r="96" spans="3:21" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D96" s="42">
+        <v>11</v>
+      </c>
+      <c r="E96" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J96" s="45"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
+      <c r="O96" s="43"/>
+      <c r="P96" s="43"/>
+      <c r="Q96" s="43"/>
+      <c r="R96" s="43"/>
+      <c r="S96" s="43"/>
+      <c r="T96" s="45"/>
+      <c r="U96" s="41"/>
+    </row>
+    <row r="97" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D97" s="42">
+        <v>12</v>
+      </c>
+      <c r="E97" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="J97" s="45"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="43"/>
+      <c r="O97" s="43"/>
+      <c r="P97" s="43"/>
+      <c r="Q97" s="43"/>
+      <c r="R97" s="43"/>
+      <c r="S97" s="43"/>
+      <c r="T97" s="45"/>
+      <c r="U97" s="41"/>
+    </row>
+    <row r="98" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D98" s="42">
+        <v>13</v>
+      </c>
+      <c r="E98" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="J98" s="45"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
+      <c r="O98" s="43"/>
+      <c r="P98" s="43"/>
+      <c r="Q98" s="43"/>
+      <c r="R98" s="43"/>
+      <c r="S98" s="43"/>
+      <c r="T98" s="45"/>
+      <c r="U98" s="41"/>
+    </row>
+    <row r="99" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D99" s="42">
+        <v>14</v>
+      </c>
+      <c r="E99" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="J99" s="45"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="45"/>
+      <c r="U99" s="41"/>
+    </row>
+    <row r="100" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D100" s="42">
+        <v>15</v>
+      </c>
+      <c r="E100" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="J100" s="45"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
+      <c r="O100" s="43"/>
+      <c r="P100" s="43"/>
+      <c r="Q100" s="43"/>
+      <c r="R100" s="43"/>
+      <c r="S100" s="43"/>
+      <c r="T100" s="45"/>
+      <c r="U100" s="41"/>
+    </row>
+    <row r="101" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D101" s="42">
+        <v>16</v>
+      </c>
+      <c r="E101" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="J101" s="45"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
+      <c r="O101" s="43"/>
+      <c r="P101" s="43"/>
+      <c r="Q101" s="43"/>
+      <c r="R101" s="43"/>
+      <c r="S101" s="43"/>
+      <c r="T101" s="45"/>
+      <c r="U101" s="41"/>
+    </row>
+    <row r="102" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D102" s="42">
+        <v>17</v>
+      </c>
+      <c r="E102" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="J102" s="45"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="43"/>
+      <c r="P102" s="43"/>
+      <c r="Q102" s="43"/>
+      <c r="R102" s="43"/>
+      <c r="S102" s="43"/>
+      <c r="T102" s="45"/>
+      <c r="U102" s="41"/>
+    </row>
+    <row r="103" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D103" s="42">
+        <v>18</v>
+      </c>
+      <c r="E103" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="J103" s="45"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
+      <c r="O103" s="43"/>
+      <c r="P103" s="43"/>
+      <c r="Q103" s="43"/>
+      <c r="R103" s="43"/>
+      <c r="S103" s="43"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="41"/>
+    </row>
+    <row r="104" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="D104" s="42">
+        <v>19</v>
+      </c>
+      <c r="E104" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
+      <c r="I104" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="J104" s="45"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
+      <c r="O104" s="43"/>
+      <c r="P104" s="43"/>
+      <c r="Q104" s="43"/>
+      <c r="R104" s="43"/>
+      <c r="S104" s="43"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="41"/>
+    </row>
+    <row r="105" spans="4:34" s="40" customFormat="1" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
+      <c r="AB106" s="4"/>
+      <c r="AC106" s="4"/>
+      <c r="AD106" s="4"/>
+      <c r="AE106" s="4"/>
+      <c r="AF106" s="4"/>
+      <c r="AG106" s="4"/>
+      <c r="AH106" s="4"/>
+    </row>
+    <row r="107" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="129" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="131" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4640,6 +5333,31 @@
     <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="505" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="506" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AA3:AE3"/>
@@ -4655,12 +5373,33 @@
     <mergeCell ref="E3:O3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="AB86" r:id="rId1" display="https://jakarta.ee/specifications/faces/" xr:uid="{782B74A1-89FC-480C-AE47-7C2520095F9A}"/>
+    <hyperlink ref="AB87" r:id="rId2" display="https://jakarta.ee/specifications/authentication/" xr:uid="{6C06BB29-4933-4C88-B41A-B0AAA657D3A9}"/>
+    <hyperlink ref="AB88" r:id="rId3" display="https://jakarta.ee/specifications/authorization/" xr:uid="{BBB03EDE-15E8-4005-AED7-30E923F89391}"/>
+    <hyperlink ref="AB89" r:id="rId4" display="https://jakarta.ee/specifications/messaging/" xr:uid="{72C31096-8AC7-4347-8582-2CC62C44DC73}"/>
+    <hyperlink ref="AB90" r:id="rId5" display="https://jakarta.ee/specifications/persistence/" xr:uid="{3DBDD60C-3BBC-45EB-82D1-D853F873E999}"/>
+    <hyperlink ref="AB91" r:id="rId6" display="https://jakarta.ee/specifications/transactions/" xr:uid="{5D688F39-A34D-4C5A-858D-B3EA812C6354}"/>
+    <hyperlink ref="AB92" r:id="rId7" display="https://jakarta.ee/specifications/batch/" xr:uid="{BA519FE1-39F7-4575-8800-D4ECA62A4672}"/>
+    <hyperlink ref="AB93" r:id="rId8" display="https://jakarta.ee/specifications/connectors/" xr:uid="{1DDCC83F-DC00-4CCD-8673-A7E27FB9D8FE}"/>
+    <hyperlink ref="AB94" r:id="rId9" display="https://jakarta.ee/specifications/activation/" xr:uid="{A82BF3B3-D769-4C05-9EED-4055CA13CABA}"/>
+    <hyperlink ref="AB95" r:id="rId10" display="https://jakarta.ee/specifications/expression-language/" xr:uid="{21619010-89F8-4EA9-8831-6EC957CC1F48}"/>
+    <hyperlink ref="AB96" r:id="rId11" display="https://jakarta.ee/specifications/enterprise-beans/" xr:uid="{C5F54307-D617-4471-B421-E09C264A1B99}"/>
+    <hyperlink ref="AB97" r:id="rId12" display="https://jakarta.ee/specifications/xml-binding/" xr:uid="{4C14C032-4474-4EEC-A103-5C4C274D58E6}"/>
+    <hyperlink ref="AB98" r:id="rId13" display="https://jakarta.ee/specifications/jsonb/" xr:uid="{02B4DFEB-C762-4AD0-B13E-33ECBDD78F12}"/>
+    <hyperlink ref="AB99" r:id="rId14" display="https://jakarta.ee/specifications/jsonp/" xr:uid="{131DFA28-7FA9-4EDA-B88F-D5CEE6B1EC48}"/>
+    <hyperlink ref="AB100" r:id="rId15" display="https://jakarta.ee/specifications/pages/" xr:uid="{112828A6-064D-4355-B811-4434E4708436}"/>
+    <hyperlink ref="AB101" r:id="rId16" display="https://jakarta.ee/specifications/xml-web-services/" xr:uid="{A439A1CD-1FD5-4481-BF7C-734038061FBF}"/>
+    <hyperlink ref="AB102" r:id="rId17" display="https://jakarta.ee/specifications/restful-ws/" xr:uid="{361F1A55-B566-4540-8D9B-977071236FC0}"/>
+    <hyperlink ref="AB103" r:id="rId18" display="https://jakarta.ee/specifications/tags/" xr:uid="{EE417ADE-AD06-4BDF-A2C1-DB97994F2816}"/>
+    <hyperlink ref="AB104" r:id="rId19" display="https://jakarta.ee/specifications/cdi/" xr:uid="{79E3E807-CF9C-4C0B-8EB3-F6D1AB359447}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId20"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="22" max="34" man="1"/>
     <brk id="64" max="34" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_1はじめに.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE364D91-8F06-412A-B2FE-3FC66D1B9DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C93A1B-3DA2-434D-B031-3866E3C6F2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.はじめに" sheetId="1" r:id="rId1"/>
@@ -366,10 +366,6 @@
     <t>Jakarta Transactions</t>
   </si>
   <si>
-    <t>JBatch / JSR352</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>Jakarta Batch</t>
   </si>
   <si>
@@ -447,6 +443,10 @@
   <si>
     <t>Webドキュメント https://nablarch.github.io/docs/6u2/doc/index.html を参照することを前提としており、本書では触れていない。</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jBatch / JSR352</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -932,8 +932,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="838200" y="3619500"/>
-          <a:ext cx="8046183" cy="5588000"/>
+          <a:off x="828675" y="3543300"/>
+          <a:ext cx="7954108" cy="5467350"/>
           <a:chOff x="1197" y="5952"/>
           <a:chExt cx="9987" cy="8614"/>
         </a:xfrm>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="19" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4556,13 +4556,13 @@
         <v>7</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F92" s="43"/>
       <c r="G92" s="43"/>
       <c r="H92" s="43"/>
       <c r="I92" s="44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J92" s="45"/>
       <c r="K92" s="43"/>
@@ -4582,13 +4582,13 @@
         <v>8</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F93" s="43"/>
       <c r="G93" s="43"/>
       <c r="H93" s="43"/>
       <c r="I93" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J93" s="45"/>
       <c r="K93" s="43"/>
@@ -4608,13 +4608,13 @@
         <v>9</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F94" s="43"/>
       <c r="G94" s="43"/>
       <c r="H94" s="43"/>
       <c r="I94" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J94" s="45"/>
       <c r="K94" s="43"/>
@@ -4634,13 +4634,13 @@
         <v>10</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F95" s="43"/>
       <c r="G95" s="43"/>
       <c r="H95" s="43"/>
       <c r="I95" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J95" s="45"/>
       <c r="K95" s="43"/>
@@ -4660,13 +4660,13 @@
         <v>11</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F96" s="43"/>
       <c r="G96" s="43"/>
       <c r="H96" s="43"/>
       <c r="I96" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J96" s="45"/>
       <c r="K96" s="43"/>
@@ -4686,13 +4686,13 @@
         <v>12</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F97" s="43"/>
       <c r="G97" s="43"/>
       <c r="H97" s="43"/>
       <c r="I97" s="44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J97" s="45"/>
       <c r="K97" s="43"/>
@@ -4712,13 +4712,13 @@
         <v>13</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F98" s="43"/>
       <c r="G98" s="43"/>
       <c r="H98" s="43"/>
       <c r="I98" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J98" s="45"/>
       <c r="K98" s="43"/>
@@ -4738,13 +4738,13 @@
         <v>14</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F99" s="43"/>
       <c r="G99" s="43"/>
       <c r="H99" s="43"/>
       <c r="I99" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J99" s="45"/>
       <c r="K99" s="43"/>
@@ -4764,13 +4764,13 @@
         <v>15</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F100" s="43"/>
       <c r="G100" s="43"/>
       <c r="H100" s="43"/>
       <c r="I100" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J100" s="45"/>
       <c r="K100" s="43"/>
@@ -4790,13 +4790,13 @@
         <v>16</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F101" s="43"/>
       <c r="G101" s="43"/>
       <c r="H101" s="43"/>
       <c r="I101" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J101" s="45"/>
       <c r="K101" s="43"/>
@@ -4816,13 +4816,13 @@
         <v>17</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F102" s="43"/>
       <c r="G102" s="43"/>
       <c r="H102" s="43"/>
       <c r="I102" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J102" s="45"/>
       <c r="K102" s="43"/>
@@ -4842,13 +4842,13 @@
         <v>18</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F103" s="43"/>
       <c r="G103" s="43"/>
       <c r="H103" s="43"/>
       <c r="I103" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J103" s="45"/>
       <c r="K103" s="43"/>
@@ -4868,13 +4868,13 @@
         <v>19</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F104" s="43"/>
       <c r="G104" s="43"/>
       <c r="H104" s="43"/>
       <c r="I104" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J104" s="45"/>
       <c r="K104" s="43"/>
